--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,361 +46,346 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>low</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>falling</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>outbreak</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>available</t>
+    <t>helping</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>want</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>staff</t>
   </si>
   <si>
-    <t>local</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>workers</t>
+    <t>time</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>amp</t>
+    <t>toilet</t>
   </si>
   <si>
     <t>people</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>toilet</t>
   </si>
   <si>
     <t>prices</t>
@@ -761,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -851,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -872,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -880,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -898,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -922,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7636986301369864</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C5">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -972,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1130,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6956521739130435</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.828125</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1172,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1180,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1198,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1230,13 +1215,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1248,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.8203125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1272,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1280,13 +1265,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5806451612903226</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1298,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5600000000000001</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1348,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.8083333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1372,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1380,7 +1365,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5128205128205128</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1398,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.795774647887324</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L14">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1422,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1430,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4864864864864865</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1448,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1472,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,13 +1465,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4666666666666667</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1498,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1522,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1530,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4515503875968992</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C17">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1548,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.7547169811320755</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1572,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1580,13 +1565,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4509803921568628</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1598,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K18">
         <v>0.7272727272727273</v>
@@ -1630,13 +1615,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4496644295302014</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1648,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.725</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L19">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1672,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1680,13 +1665,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4358974358974359</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1698,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1722,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1730,13 +1715,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4166666666666667</v>
+        <v>0.4205426356589148</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1748,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.6684073107049608</v>
+        <v>0.71875</v>
       </c>
       <c r="L21">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="M21">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1772,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>127</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1780,7 +1765,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4054054054054054</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -1798,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.6458333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1822,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,13 +1815,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1872,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1865,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.392156862745098</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1898,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.6382978723404256</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1922,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1930,13 +1915,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3766233766233766</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1948,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.5833333333333334</v>
+        <v>0.6631853785900783</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1972,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1983,10 +1968,10 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1998,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.5764705882352941</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L26">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="M26">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2022,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>144</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2030,37 +2015,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3563829787234042</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.5730337078651685</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2072,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2080,13 +2065,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3559322033898305</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2098,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2122,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2130,13 +2115,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2148,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.5694915254237288</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L29">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2172,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2180,13 +2165,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2198,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.5588235294117647</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2222,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2230,13 +2215,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.288135593220339</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2248,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K31">
-        <v>0.5555555555555556</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2272,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2301,16 +2286,16 @@
         <v>40</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.5333333333333333</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2322,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2330,37 +2315,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.257936507936508</v>
+        <v>0.2749003984063745</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K33">
-        <v>0.5277777777777778</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2372,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2380,37 +2365,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1644204851752022</v>
+        <v>0.225</v>
       </c>
       <c r="C34">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>0.5230769230769231</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2422,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2430,13 +2415,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1144578313253012</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2448,19 +2433,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K35">
-        <v>0.5116279069767442</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2480,28 +2465,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01114294810569882</v>
+        <v>0.1024096385542169</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3106</v>
+        <v>149</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K36">
         <v>0.5062761506276151</v>
@@ -2530,37 +2515,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00738255033557047</v>
+        <v>0.008341675008341674</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E37">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F37">
-        <v>0.15</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2958</v>
+        <v>2972</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K37">
         <v>0.5</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2572,21 +2557,45 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.0080040020010005</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>160</v>
+      </c>
+      <c r="E38">
+        <v>0.9</v>
+      </c>
+      <c r="F38">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1983</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2598,21 +2607,45 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.00768</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>0.76</v>
+      </c>
+      <c r="F39">
+        <v>0.24</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3101</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K39">
-        <v>0.4931506849315068</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2624,47 +2657,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K40">
-        <v>0.4743589743589743</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L40">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K41">
-        <v>0.46875</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2676,21 +2709,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2702,21 +2735,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>0.3617021276595745</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2728,47 +2761,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K44">
-        <v>0.3414634146341464</v>
+        <v>0.390625</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K45">
-        <v>0.288135593220339</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2780,21 +2813,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K46">
-        <v>0.2638888888888889</v>
+        <v>0.325</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2806,21 +2839,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>0.2295081967213115</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2832,21 +2865,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>0.2203389830508475</v>
+        <v>0.25</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2858,21 +2891,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K49">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2884,21 +2917,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K50">
-        <v>0.1754807692307692</v>
+        <v>0.1985645933014354</v>
       </c>
       <c r="L50">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M50">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2910,47 +2943,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K51">
-        <v>0.1752577319587629</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K52">
-        <v>0.1717791411042945</v>
+        <v>0.1706730769230769</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2962,21 +2995,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>135</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K53">
-        <v>0.1686046511627907</v>
+        <v>0.1674418604651163</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2988,125 +3021,125 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K54">
-        <v>0.1678657074340528</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L54">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>347</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K55">
-        <v>0.1615384615384615</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K56">
-        <v>0.1581395348837209</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K57">
-        <v>0.1495327102803738</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L57">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>182</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K58">
-        <v>0.1477272727272727</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3118,21 +3151,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K59">
-        <v>0.1417322834645669</v>
+        <v>0.125</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3144,15 +3177,15 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K60">
-        <v>0.1346153846153846</v>
+        <v>0.125</v>
       </c>
       <c r="L60">
         <v>14</v>
@@ -3170,47 +3203,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K61">
+        <v>0.1206896551724138</v>
+      </c>
+      <c r="L61">
+        <v>14</v>
+      </c>
+      <c r="M61">
+        <v>14</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>102</v>
-      </c>
-      <c r="K61">
-        <v>0.1287128712871287</v>
-      </c>
-      <c r="L61">
-        <v>13</v>
-      </c>
-      <c r="M61">
-        <v>13</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>88</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K62">
-        <v>0.1284403669724771</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3222,15 +3255,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>95</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K63">
-        <v>0.1278195488721804</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="L63">
         <v>17</v>
@@ -3248,47 +3281,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K64">
-        <v>0.1217391304347826</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="L64">
         <v>14</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K65">
-        <v>0.1130434782608696</v>
+        <v>0.1017897091722595</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3300,21 +3333,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>204</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K66">
-        <v>0.1107382550335571</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L66">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3326,21 +3359,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>795</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K67">
-        <v>0.1090909090909091</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3352,93 +3385,93 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K68">
-        <v>0.1020408163265306</v>
+        <v>0.08565072302558398</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>132</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K69">
-        <v>0.09846153846153846</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="L69">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N69">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>293</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K70">
-        <v>0.09666666666666666</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L70">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="N70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>813</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K71">
-        <v>0.09433962264150944</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L71">
         <v>15</v>
@@ -3456,241 +3489,241 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K72">
-        <v>0.09259259259259259</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="L72">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M72">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>441</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K73">
-        <v>0.09090909090909091</v>
+        <v>0.07098765432098765</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>130</v>
+        <v>602</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>0.07929515418502203</v>
+        <v>0.06770098730606489</v>
       </c>
       <c r="L74">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>209</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K75">
-        <v>0.07739938080495357</v>
+        <v>0.05311778290993072</v>
       </c>
       <c r="L75">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M75">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N75">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O75">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>596</v>
+        <v>820</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K76">
-        <v>0.07641819034224097</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="L76">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="N76">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1970</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K77">
-        <v>0.07291666666666667</v>
+        <v>0.04642857142857143</v>
       </c>
       <c r="L77">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M77">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="N77">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O77">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>801</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K78">
-        <v>0.07027027027027027</v>
+        <v>0.04262295081967213</v>
       </c>
       <c r="L78">
         <v>13</v>
       </c>
       <c r="M78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>172</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K79">
-        <v>0.06390977443609022</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="L79">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>249</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="K80">
-        <v>0.05863192182410423</v>
+        <v>0.03569110966904607</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="M80">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="N80">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O80">
-        <v>0.05000000000000004</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>289</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3698,25 +3731,25 @@
         <v>122</v>
       </c>
       <c r="K81">
-        <v>0.05743243243243244</v>
+        <v>0.03136531365313653</v>
       </c>
       <c r="L81">
         <v>17</v>
       </c>
       <c r="M81">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N81">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="O81">
-        <v>0.1899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>279</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3724,51 +3757,51 @@
         <v>123</v>
       </c>
       <c r="K82">
-        <v>0.04605263157894737</v>
+        <v>0.02910602910602911</v>
       </c>
       <c r="L82">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M82">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N82">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="O82">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>290</v>
+        <v>934</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>0.04116693679092383</v>
+        <v>0.02392193893610324</v>
       </c>
       <c r="L83">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="M83">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="N83">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="O83">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>2958</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3776,181 +3809,25 @@
         <v>124</v>
       </c>
       <c r="K84">
-        <v>0.04046242774566474</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="L84">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M84">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N84">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="O84">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K85">
-        <v>0.03910614525139665</v>
-      </c>
-      <c r="L85">
-        <v>21</v>
-      </c>
-      <c r="M85">
-        <v>29</v>
-      </c>
-      <c r="N85">
-        <v>0.72</v>
-      </c>
-      <c r="O85">
-        <v>0.28</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K86">
-        <v>0.03611111111111111</v>
-      </c>
-      <c r="L86">
-        <v>13</v>
-      </c>
-      <c r="M86">
-        <v>13</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K87">
-        <v>0.03312629399585922</v>
-      </c>
-      <c r="L87">
-        <v>32</v>
-      </c>
-      <c r="M87">
-        <v>34</v>
-      </c>
-      <c r="N87">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O87">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K88">
-        <v>0.0301418439716312</v>
-      </c>
-      <c r="L88">
-        <v>17</v>
-      </c>
-      <c r="M88">
-        <v>20</v>
-      </c>
-      <c r="N88">
-        <v>0.85</v>
-      </c>
-      <c r="O88">
-        <v>0.15</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K89">
-        <v>0.01901469317199654</v>
-      </c>
-      <c r="L89">
-        <v>22</v>
-      </c>
-      <c r="M89">
-        <v>26</v>
-      </c>
-      <c r="N89">
-        <v>0.85</v>
-      </c>
-      <c r="O89">
-        <v>0.15</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K90">
-        <v>0.01895135818066962</v>
-      </c>
-      <c r="L90">
-        <v>60</v>
-      </c>
-      <c r="M90">
-        <v>95</v>
-      </c>
-      <c r="N90">
-        <v>0.63</v>
-      </c>
-      <c r="O90">
-        <v>0.37</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>3106</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,79 +40,103 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>shortage</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>sc</t>
@@ -121,10 +145,7 @@
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>lower</t>
@@ -133,259 +154,286 @@
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>outbreak</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>nice</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>community</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>open</t>
   </si>
   <si>
     <t>want</t>
   </si>
   <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
+    <t>customers</t>
+  </si>
+  <si>
     <t>essential</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>health</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>retail</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>staff</t>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>via</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -746,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +802,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -818,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -836,16 +884,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -857,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -865,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -915,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8076923076923077</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -957,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -965,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -983,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1015,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1033,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.8723404255319149</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1065,13 +1113,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7123287671232876</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1083,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1107,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1115,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1133,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1157,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1165,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1207,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1215,13 +1263,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,31 +1281,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L11">
+        <v>69</v>
+      </c>
+      <c r="M11">
+        <v>69</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>13</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L11">
-        <v>47</v>
-      </c>
-      <c r="M11">
-        <v>47</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1265,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6153846153846154</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1283,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1363,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6153846153846154</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1333,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,13 +1413,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5405405405405406</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1383,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.7619047619047619</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1415,13 +1463,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5333333333333333</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1433,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.7547169811320755</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1513,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5161290322580645</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1486,16 +1534,16 @@
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L16">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,38 +1563,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4864864864864865</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>18</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L17">
-        <v>20</v>
-      </c>
-      <c r="M17">
-        <v>20</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1557,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,13 +1613,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4705882352941176</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,31 +1631,31 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="L18">
+        <v>79</v>
+      </c>
+      <c r="M18">
+        <v>79</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>27</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L18">
-        <v>16</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1615,13 +1663,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4516129032258064</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,31 +1681,31 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L19">
+        <v>46</v>
+      </c>
+      <c r="M19">
+        <v>46</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>17</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19">
-        <v>0.7254901960784313</v>
-      </c>
-      <c r="L19">
-        <v>37</v>
-      </c>
-      <c r="M19">
-        <v>37</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1665,13 +1713,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4429530201342282</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1683,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1707,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1715,13 +1763,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4205426356589148</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C21">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1733,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>299</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.71875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1757,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,13 +1813,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4166666666666667</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1783,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.7083333333333334</v>
+        <v>0.7125</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1807,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,13 +1863,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1857,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1865,13 +1913,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3733333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1883,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1907,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,13 +1963,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3728813559322034</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1933,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.6631853785900783</v>
+        <v>0.66</v>
       </c>
       <c r="L25">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1957,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,13 +2013,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3636363636363636</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1983,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.648936170212766</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L26">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2007,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2015,13 +2063,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3529411764705883</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2033,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.6041666666666666</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2057,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,13 +2113,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3439153439153439</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="D28">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2083,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.5941176470588235</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2107,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,13 +2163,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3389830508474576</v>
+        <v>0.4295302013422819</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2133,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2157,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2165,13 +2213,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2909090909090909</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.5813953488372093</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2207,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2215,13 +2263,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2888888888888889</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2233,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.5806451612903226</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>18</v>
-      </c>
-      <c r="M31">
-        <v>18</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2265,38 +2313,38 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2857142857142857</v>
+        <v>0.35</v>
       </c>
       <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>26</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L32">
         <v>16</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>16</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>40</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32">
-        <v>0.5692307692307692</v>
-      </c>
-      <c r="L32">
-        <v>37</v>
-      </c>
-      <c r="M32">
-        <v>37</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2307,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2315,37 +2363,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2749003984063745</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C33">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.5661016949152542</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L33">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2357,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>128</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2365,13 +2413,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.225</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2383,19 +2431,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.5393258426966292</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2407,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2415,13 +2463,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1528150134048257</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C35">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2433,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.5333333333333333</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2457,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2465,13 +2513,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1024096385542169</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2483,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.5062761506276151</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L36">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="M36">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2507,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2515,37 +2563,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.008341675008341674</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.1899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>2972</v>
+        <v>40</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2557,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2565,37 +2613,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0080040020010005</v>
+        <v>0.2875</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1983</v>
+        <v>57</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.4657534246575342</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2607,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2615,37 +2663,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00768</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>3101</v>
+        <v>41</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.4571428571428571</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2657,125 +2705,245 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.2182539682539683</v>
+      </c>
+      <c r="C40">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>197</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.4146341463414634</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M40">
+        <v>35</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.160857908847185</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>60</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>313</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>14</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.007153806847215125</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
+      </c>
+      <c r="E42">
+        <v>0.93</v>
+      </c>
+      <c r="F42">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1943</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L42">
+        <v>36</v>
+      </c>
+      <c r="M42">
+        <v>36</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.005784061696658098</v>
+      </c>
+      <c r="C43">
         <v>18</v>
       </c>
-      <c r="N40">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O40">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41">
-        <v>0.4042553191489361</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42">
-        <v>0.4</v>
-      </c>
-      <c r="L42">
+      <c r="D43">
+        <v>107</v>
+      </c>
+      <c r="E43">
+        <v>0.83</v>
+      </c>
+      <c r="F43">
+        <v>0.17</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3094</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.005389019872010778</v>
+      </c>
+      <c r="C44">
         <v>16</v>
       </c>
-      <c r="M42">
-        <v>16</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43">
-        <v>0.3934426229508197</v>
-      </c>
-      <c r="L43">
-        <v>24</v>
-      </c>
-      <c r="M43">
-        <v>24</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="D44">
+        <v>154</v>
+      </c>
+      <c r="E44">
+        <v>0.9</v>
+      </c>
+      <c r="F44">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2953</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.390625</v>
+        <v>0.46875</v>
       </c>
       <c r="L44">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2787,21 +2955,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.3559322033898305</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2813,21 +2981,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.325</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2839,47 +3007,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.288135593220339</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.25</v>
+        <v>0.425</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2891,21 +3059,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.2</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2917,21 +3085,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.1985645933014354</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L50">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2943,21 +3111,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>335</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.1984126984126984</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>0.96</v>
@@ -2969,21 +3137,21 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>101</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.1706730769230769</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L52">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2995,21 +3163,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>345</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.1674418604651163</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L53">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3021,125 +3189,125 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>179</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.1615384615384615</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>109</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.154320987654321</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>137</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.1401869158878505</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>184</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.134020618556701</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.1272727272727273</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3151,47 +3319,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.125</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>91</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K60">
-        <v>0.125</v>
+        <v>0.1658653846153846</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3203,21 +3371,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>98</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>0.1206896551724138</v>
+        <v>0.1650717703349282</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3229,21 +3397,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>102</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K62">
-        <v>0.1192660550458716</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="L62">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3255,21 +3423,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>288</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K63">
-        <v>0.1069182389937107</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3281,99 +3449,99 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K64">
-        <v>0.1060606060606061</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M64">
         <v>15</v>
       </c>
       <c r="N64">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K65">
-        <v>0.1017897091722595</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L65">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>803</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K66">
-        <v>0.09883720930232558</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K67">
-        <v>0.0948905109489051</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3385,99 +3553,99 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K68">
-        <v>0.08565072302558398</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="L68">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="M68">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>822</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K69">
-        <v>0.08270676691729323</v>
+        <v>0.121923937360179</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>244</v>
+        <v>785</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K70">
-        <v>0.08116883116883117</v>
+        <v>0.1207430340557276</v>
       </c>
       <c r="L70">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K71">
-        <v>0.08108108108108109</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3489,125 +3657,125 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>170</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K72">
-        <v>0.07488986784140969</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="L72">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>210</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K73">
-        <v>0.07098765432098765</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="L73">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>602</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="K74">
-        <v>0.06770098730606489</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="L74">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N74">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1983</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K75">
-        <v>0.05311778290993072</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="L75">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M75">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N75">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>820</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K76">
-        <v>0.04732510288065844</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L76">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M76">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3619,215 +3787,501 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>463</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K77">
-        <v>0.04642857142857143</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L77">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N77">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>267</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K78">
-        <v>0.04262295081967213</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L78">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N78">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>292</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K79">
-        <v>0.03723404255319149</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="L79">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N79">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>543</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K80">
-        <v>0.03569110966904607</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L80">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="M80">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="N80">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="O80">
-        <v>0.1899999999999999</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>2972</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K81">
-        <v>0.03136531365313653</v>
+        <v>0.09119010819165378</v>
       </c>
       <c r="L81">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N81">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O81">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>525</v>
+        <v>588</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K82">
-        <v>0.02910602910602911</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L82">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N82">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>934</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="K83">
-        <v>0.02392193893610324</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L83">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="M83">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="N83">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>3101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>0.01730103806228374</v>
+        <v>0.08736496007515265</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="M84">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N84">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="O84">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>1136</v>
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K85">
+        <v>0.08453608247422681</v>
+      </c>
+      <c r="L85">
+        <v>41</v>
+      </c>
+      <c r="M85">
+        <v>42</v>
+      </c>
+      <c r="N85">
+        <v>0.98</v>
+      </c>
+      <c r="O85">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K86">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L86">
+        <v>19</v>
+      </c>
+      <c r="M86">
+        <v>21</v>
+      </c>
+      <c r="N86">
+        <v>0.9</v>
+      </c>
+      <c r="O86">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K87">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="L87">
+        <v>21</v>
+      </c>
+      <c r="M87">
+        <v>22</v>
+      </c>
+      <c r="N87">
+        <v>0.95</v>
+      </c>
+      <c r="O87">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K88">
+        <v>0.07870370370370371</v>
+      </c>
+      <c r="L88">
+        <v>68</v>
+      </c>
+      <c r="M88">
+        <v>71</v>
+      </c>
+      <c r="N88">
+        <v>0.96</v>
+      </c>
+      <c r="O88">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K89">
+        <v>0.0718954248366013</v>
+      </c>
+      <c r="L89">
+        <v>22</v>
+      </c>
+      <c r="M89">
+        <v>24</v>
+      </c>
+      <c r="N89">
+        <v>0.92</v>
+      </c>
+      <c r="O89">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K90">
+        <v>0.06808510638297872</v>
+      </c>
+      <c r="L90">
+        <v>16</v>
+      </c>
+      <c r="M90">
+        <v>18</v>
+      </c>
+      <c r="N90">
+        <v>0.89</v>
+      </c>
+      <c r="O90">
+        <v>0.11</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K91">
+        <v>0.04464574571336137</v>
+      </c>
+      <c r="L91">
+        <v>138</v>
+      </c>
+      <c r="M91">
+        <v>154</v>
+      </c>
+      <c r="N91">
+        <v>0.9</v>
+      </c>
+      <c r="O91">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K92">
+        <v>0.04356846473029045</v>
+      </c>
+      <c r="L92">
+        <v>42</v>
+      </c>
+      <c r="M92">
+        <v>46</v>
+      </c>
+      <c r="N92">
+        <v>0.91</v>
+      </c>
+      <c r="O92">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K93">
+        <v>0.03008849557522124</v>
+      </c>
+      <c r="L93">
+        <v>17</v>
+      </c>
+      <c r="M93">
+        <v>19</v>
+      </c>
+      <c r="N93">
+        <v>0.89</v>
+      </c>
+      <c r="O93">
+        <v>0.11</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K94">
+        <v>0.02796104304115614</v>
+      </c>
+      <c r="L94">
+        <v>89</v>
+      </c>
+      <c r="M94">
+        <v>107</v>
+      </c>
+      <c r="N94">
+        <v>0.83</v>
+      </c>
+      <c r="O94">
+        <v>0.17</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K95">
+        <v>0.02599653379549393</v>
+      </c>
+      <c r="L95">
+        <v>30</v>
+      </c>
+      <c r="M95">
+        <v>37</v>
+      </c>
+      <c r="N95">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O95">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
